--- a/work1.xlsx
+++ b/work1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="jan" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1673,6 +1673,9 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
       <c r="H15">
         <v>4</v>
       </c>
@@ -1732,6 +1735,9 @@
       <c r="F16" t="s">
         <v>30</v>
       </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
       <c r="H16">
         <v>3</v>
       </c>
@@ -1791,6 +1797,9 @@
       <c r="F17" t="s">
         <v>30</v>
       </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
       <c r="H17">
         <v>4</v>
       </c>
@@ -1853,6 +1862,9 @@
       <c r="F18" t="s">
         <v>30</v>
       </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
       <c r="H18">
         <v>4</v>
       </c>
@@ -1912,6 +1924,9 @@
       <c r="F19" t="s">
         <v>30</v>
       </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
       <c r="H19">
         <v>4</v>
       </c>
@@ -1970,6 +1985,9 @@
       </c>
       <c r="F20" t="s">
         <v>30</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2020,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2475,6 +2493,9 @@
       <c r="F7" t="s">
         <v>30</v>
       </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
       <c r="H7">
         <v>3</v>
       </c>
@@ -2534,6 +2555,9 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
       <c r="H8">
         <v>5</v>
       </c>
@@ -2596,6 +2620,9 @@
       <c r="F9" t="s">
         <v>30</v>
       </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
       <c r="H9">
         <v>4</v>
       </c>
@@ -2658,6 +2685,9 @@
       <c r="F10" t="s">
         <v>30</v>
       </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="H10">
         <v>4</v>
       </c>
@@ -2720,6 +2750,9 @@
       <c r="F11" t="s">
         <v>30</v>
       </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
       <c r="H11">
         <v>4</v>
       </c>
@@ -2778,6 +2811,9 @@
       </c>
       <c r="F12" t="s">
         <v>30</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
       </c>
       <c r="H12">
         <v>4</v>
